--- a/prediction_data_moodlefinal5.xlsx
+++ b/prediction_data_moodlefinal5.xlsx
@@ -549,13 +549,13 @@
         <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>24.08697580035482</v>
+        <v>24.08697594424079</v>
       </c>
       <c r="D3" t="n">
         <v>53.4</v>
       </c>
       <c r="E3" t="n">
-        <v>48.50850391145732</v>
+        <v>48.50850375102388</v>
       </c>
       <c r="F3" t="n">
         <v>0.5126460527419053</v>
@@ -570,13 +570,13 @@
         <v>0.1251526461426894</v>
       </c>
       <c r="J3" t="n">
-        <v>9.376084538886687</v>
+        <v>9.376084846407641</v>
       </c>
       <c r="K3" t="n">
-        <v>11.12888372568153</v>
+        <v>11.12888409069156</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1451482518855393</v>
+        <v>0.1451482566461756</v>
       </c>
       <c r="M3" t="n">
         <v>1.425545668322417</v>
@@ -631,13 +631,13 @@
         <v>22.3</v>
       </c>
       <c r="C5" t="n">
-        <v>30.64346125997545</v>
+        <v>30.64346148481441</v>
       </c>
       <c r="D5" t="n">
         <v>48.5</v>
       </c>
       <c r="E5" t="n">
-        <v>41.80166233662529</v>
+        <v>41.80166215611899</v>
       </c>
       <c r="F5" t="n">
         <v>0.2875523818737399</v>
@@ -652,13 +652,13 @@
         <v>0.2588108712346066</v>
       </c>
       <c r="J5" t="n">
-        <v>9.9931067861617</v>
+        <v>9.993107055455191</v>
       </c>
       <c r="K5" t="n">
-        <v>15.25665158192626</v>
+        <v>15.25665199306136</v>
       </c>
       <c r="L5" t="n">
-        <v>0.318452719846391</v>
+        <v>0.318452728428031</v>
       </c>
       <c r="M5" t="n">
         <v>1.029445018072202</v>
@@ -713,13 +713,13 @@
         <v>13.8</v>
       </c>
       <c r="C7" t="n">
-        <v>18.62241814010176</v>
+        <v>18.62241829967096</v>
       </c>
       <c r="D7" t="n">
         <v>53.2</v>
       </c>
       <c r="E7" t="n">
-        <v>47.71188192645833</v>
+        <v>47.71188174486176</v>
       </c>
       <c r="F7" t="n">
         <v>0.5799667086437413</v>
@@ -734,13 +734,13 @@
         <v>0.1524007847238041</v>
       </c>
       <c r="J7" t="n">
-        <v>11.68536828345237</v>
+        <v>11.68536867011002</v>
       </c>
       <c r="K7" t="n">
-        <v>11.86331805426637</v>
+        <v>11.8633184468122</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1392923368919206</v>
+        <v>0.1392923415009707</v>
       </c>
       <c r="M7" t="n">
         <v>1.425545668322417</v>
@@ -795,13 +795,13 @@
         <v>19.6</v>
       </c>
       <c r="C9" t="n">
-        <v>29.74885226613198</v>
+        <v>29.74885252297446</v>
       </c>
       <c r="D9" t="n">
         <v>57.1</v>
       </c>
       <c r="E9" t="n">
-        <v>42.8981291873159</v>
+        <v>42.89812882790149</v>
       </c>
       <c r="F9" t="n">
         <v>0.3002798752865589</v>
@@ -816,13 +816,13 @@
         <v>0.4909455841376956</v>
       </c>
       <c r="J9" t="n">
-        <v>12.70566293241091</v>
+        <v>12.70566325395998</v>
       </c>
       <c r="K9" t="n">
-        <v>13.55270712790497</v>
+        <v>13.55270747089065</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3787165550049094</v>
+        <v>0.3787165645892937</v>
       </c>
       <c r="M9" t="n">
         <v>1.139860949984734</v>
@@ -877,13 +877,13 @@
         <v>19.3</v>
       </c>
       <c r="C11" t="n">
-        <v>26.09177140305239</v>
+        <v>26.0917716116084</v>
       </c>
       <c r="D11" t="n">
         <v>54.3</v>
       </c>
       <c r="E11" t="n">
-        <v>47.40245928134116</v>
+        <v>47.40245906953728</v>
       </c>
       <c r="F11" t="n">
         <v>0.3928698643946315</v>
@@ -898,13 +898,13 @@
         <v>0.2878990602690667</v>
       </c>
       <c r="J11" t="n">
-        <v>11.12583303699818</v>
+        <v>11.12583337864091</v>
       </c>
       <c r="K11" t="n">
-        <v>12.71523775656935</v>
+        <v>12.71523814701819</v>
       </c>
       <c r="L11" t="n">
-        <v>0.197072591961681</v>
+        <v>0.1970725980132205</v>
       </c>
       <c r="M11" t="n">
         <v>1.053779595892426</v>
@@ -959,13 +959,13 @@
         <v>19.4</v>
       </c>
       <c r="C13" t="n">
-        <v>21.89652964077499</v>
+        <v>21.89652972667228</v>
       </c>
       <c r="D13" t="n">
         <v>52.5</v>
       </c>
       <c r="E13" t="n">
-        <v>48.42696527591096</v>
+        <v>48.42696513577138</v>
       </c>
       <c r="F13" t="n">
         <v>0.671028744534186</v>
@@ -980,13 +980,13 @@
         <v>0.2601431463104357</v>
       </c>
       <c r="J13" t="n">
-        <v>6.984946349481891</v>
+        <v>6.98494658981067</v>
       </c>
       <c r="K13" t="n">
-        <v>8.44102277883008</v>
+        <v>8.441023069257605</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1230524085827505</v>
+        <v>0.1230524128165748</v>
       </c>
       <c r="M13" t="n">
         <v>1.065479746313639</v>
@@ -1041,13 +1041,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>26.8858308646523</v>
+        <v>26.88583109206294</v>
       </c>
       <c r="D15" t="n">
         <v>52.7</v>
       </c>
       <c r="E15" t="n">
-        <v>44.28970073717641</v>
+        <v>44.28970049464121</v>
       </c>
       <c r="F15" t="n">
         <v>0.4881730422393566</v>
@@ -1062,13 +1062,13 @@
         <v>0.2119537299947021</v>
       </c>
       <c r="J15" t="n">
-        <v>16.0534609165562</v>
+        <v>16.05346137950398</v>
       </c>
       <c r="K15" t="n">
-        <v>19.05455301668392</v>
+        <v>19.05455356617683</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2495637763449137</v>
+        <v>0.2495637835418039</v>
       </c>
       <c r="M15" t="n">
         <v>1.133911947008319</v>
@@ -1123,13 +1123,13 @@
         <v>19.4</v>
       </c>
       <c r="C17" t="n">
-        <v>22.72393036240679</v>
+        <v>22.72393047429888</v>
       </c>
       <c r="D17" t="n">
         <v>53.9</v>
       </c>
       <c r="E17" t="n">
-        <v>49.1410233011907</v>
+        <v>49.14102314099123</v>
       </c>
       <c r="F17" t="n">
         <v>0.6369294304913755</v>
@@ -1144,13 +1144,13 @@
         <v>0.2241675537321912</v>
       </c>
       <c r="J17" t="n">
-        <v>8.827311596035875</v>
+        <v>8.827311893186026</v>
       </c>
       <c r="K17" t="n">
-        <v>10.23456416931696</v>
+        <v>10.23456451383887</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1379413535886753</v>
+        <v>0.1379413582321383</v>
       </c>
       <c r="M17" t="n">
         <v>1.165477079235143</v>
@@ -1205,13 +1205,13 @@
         <v>19.5</v>
       </c>
       <c r="C19" t="n">
-        <v>26.44891823475284</v>
+        <v>26.44891844797201</v>
       </c>
       <c r="D19" t="n">
         <v>55.2</v>
       </c>
       <c r="E19" t="n">
-        <v>48.14409917889859</v>
+        <v>48.14409896239679</v>
       </c>
       <c r="F19" t="n">
         <v>0.3928787303096709</v>
@@ -1226,13 +1226,13 @@
         <v>0.2876613035114786</v>
       </c>
       <c r="J19" t="n">
-        <v>11.38270323578156</v>
+        <v>11.38270358504607</v>
       </c>
       <c r="K19" t="n">
-        <v>12.75372911572163</v>
+        <v>12.75372950705442</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1976442807031207</v>
+        <v>0.1976442867675969</v>
       </c>
       <c r="M19" t="n">
         <v>1.053779595892426</v>
@@ -1287,13 +1287,13 @@
         <v>19.6</v>
       </c>
       <c r="C21" t="n">
-        <v>22.12554633014194</v>
+        <v>22.12554641701199</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>48.88012282380807</v>
+        <v>48.88012268209857</v>
       </c>
       <c r="F21" t="n">
         <v>0.6710356987879318</v>
@@ -1308,13 +1308,13 @@
         <v>0.2600126268799931</v>
       </c>
       <c r="J21" t="n">
-        <v>7.065699077522546</v>
+        <v>7.065699320558118</v>
       </c>
       <c r="K21" t="n">
-        <v>8.461915062901253</v>
+        <v>8.461915353961817</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1233496160536506</v>
+        <v>0.1233496202964502</v>
       </c>
       <c r="M21" t="n">
         <v>1.065479746313639</v>
@@ -1369,13 +1369,13 @@
         <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.30214412842682</v>
+        <v>27.3021443562709</v>
       </c>
       <c r="D23" t="n">
         <v>53.2</v>
       </c>
       <c r="E23" t="n">
-        <v>44.7501440454411</v>
+        <v>44.75014380180473</v>
       </c>
       <c r="F23" t="n">
         <v>0.4895413483796101</v>
@@ -1390,13 +1390,13 @@
         <v>0.2118557148920427</v>
       </c>
       <c r="J23" t="n">
-        <v>16.12944968367955</v>
+        <v>16.12945014874316</v>
       </c>
       <c r="K23" t="n">
-        <v>19.08810613453201</v>
+        <v>19.08810668490315</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2499957383005593</v>
+        <v>0.2499957455087358</v>
       </c>
       <c r="M23" t="n">
         <v>1.137868529938777</v>
@@ -1451,13 +1451,13 @@
         <v>19.6</v>
       </c>
       <c r="C25" t="n">
-        <v>29.09915034911004</v>
+        <v>29.09915060453191</v>
       </c>
       <c r="D25" t="n">
         <v>53.5</v>
       </c>
       <c r="E25" t="n">
-        <v>43.39389654605913</v>
+        <v>43.39389627431695</v>
       </c>
       <c r="F25" t="n">
         <v>0.2893956615580419</v>
@@ -1472,13 +1472,13 @@
         <v>0.4375293671640324</v>
       </c>
       <c r="J25" t="n">
-        <v>11.46122266766762</v>
+        <v>11.46122297584749</v>
       </c>
       <c r="K25" t="n">
-        <v>13.52356656951932</v>
+        <v>13.52356693315339</v>
       </c>
       <c r="L25" t="n">
-        <v>0.298115146133949</v>
+        <v>0.2981151541499425</v>
       </c>
       <c r="M25" t="n">
         <v>0.9124896181114223</v>
@@ -1533,13 +1533,13 @@
         <v>22.4</v>
       </c>
       <c r="C27" t="n">
-        <v>26.84225920626695</v>
+        <v>26.84225935374987</v>
       </c>
       <c r="D27" t="n">
         <v>48.4</v>
       </c>
       <c r="E27" t="n">
-        <v>45.98588505596943</v>
+        <v>45.98588497582085</v>
       </c>
       <c r="F27" t="n">
         <v>0.2502799552486097</v>
@@ -1554,13 +1554,13 @@
         <v>0.1555459856000857</v>
       </c>
       <c r="J27" t="n">
-        <v>4.630755896365871</v>
+        <v>4.630756050106887</v>
       </c>
       <c r="K27" t="n">
-        <v>7.124239840562878</v>
+        <v>7.124240077087519</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1708561233179594</v>
+        <v>0.1708561289903798</v>
       </c>
       <c r="M27" t="n">
         <v>0.9400588003179114</v>
@@ -1615,13 +1615,13 @@
         <v>20.5</v>
       </c>
       <c r="C29" t="n">
-        <v>28.86174278318914</v>
+        <v>28.8617430293205</v>
       </c>
       <c r="D29" t="n">
         <v>52.5</v>
       </c>
       <c r="E29" t="n">
-        <v>46.38239558369919</v>
+        <v>46.38239540362497</v>
       </c>
       <c r="F29" t="n">
         <v>0.3207098133158484</v>
@@ -1636,13 +1636,13 @@
         <v>0.1915987993348298</v>
       </c>
       <c r="J29" t="n">
-        <v>11.1769637901338</v>
+        <v>11.17696411913236</v>
       </c>
       <c r="K29" t="n">
-        <v>13.97120473766725</v>
+        <v>13.97120514891545</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2613044619746605</v>
+        <v>0.2613044696662655</v>
       </c>
       <c r="M29" t="n">
         <v>0.9595828882600164</v>
@@ -1697,13 +1697,13 @@
         <v>21.3</v>
       </c>
       <c r="C31" t="n">
-        <v>29.12769800735053</v>
+        <v>29.12769823787619</v>
       </c>
       <c r="D31" t="n">
         <v>51.3</v>
       </c>
       <c r="E31" t="n">
-        <v>45.57479049378331</v>
+        <v>45.57479032517593</v>
       </c>
       <c r="F31" t="n">
         <v>0.3207447351226388</v>
@@ -1718,13 +1718,13 @@
         <v>0.1918379703714777</v>
       </c>
       <c r="J31" t="n">
-        <v>10.4612816099382</v>
+        <v>10.46128191802289</v>
       </c>
       <c r="K31" t="n">
-        <v>13.94837547991761</v>
+        <v>13.94837589069718</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2609232669116843</v>
+        <v>0.2609232745958729</v>
       </c>
       <c r="M31" t="n">
         <v>0.9595828882600164</v>
@@ -1779,13 +1779,13 @@
         <v>21.8</v>
       </c>
       <c r="C33" t="n">
-        <v>29.66891394426489</v>
+        <v>29.66891415623629</v>
       </c>
       <c r="D33" t="n">
         <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>41.62650746064429</v>
+        <v>41.62650723508064</v>
       </c>
       <c r="F33" t="n">
         <v>0.2894770877159045</v>
@@ -1800,13 +1800,13 @@
         <v>0.4383392251875413</v>
       </c>
       <c r="J33" t="n">
-        <v>9.489498178724951</v>
+        <v>9.489498434351358</v>
       </c>
       <c r="K33" t="n">
-        <v>13.4602811045744</v>
+        <v>13.46028146716505</v>
       </c>
       <c r="L33" t="n">
-        <v>0.296932359551621</v>
+        <v>0.2969323675503318</v>
       </c>
       <c r="M33" t="n">
         <v>0.9124896181114223</v>

--- a/prediction_data_moodlefinal5.xlsx
+++ b/prediction_data_moodlefinal5.xlsx
@@ -549,13 +549,13 @@
         <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>24.08697594424079</v>
+        <v>24.49438405144457</v>
       </c>
       <c r="D3" t="n">
         <v>53.4</v>
       </c>
       <c r="E3" t="n">
-        <v>48.50850375102388</v>
+        <v>48.05424203326682</v>
       </c>
       <c r="F3" t="n">
         <v>0.5126460527419053</v>
@@ -570,13 +570,13 @@
         <v>0.1251526461426894</v>
       </c>
       <c r="J3" t="n">
-        <v>9.376084846407641</v>
+        <v>10.24681972820513</v>
       </c>
       <c r="K3" t="n">
-        <v>11.12888409069156</v>
+        <v>12.16239730350757</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1451482566461756</v>
+        <v>0.1586278328407471</v>
       </c>
       <c r="M3" t="n">
         <v>1.425545668322417</v>
@@ -631,13 +631,13 @@
         <v>22.3</v>
       </c>
       <c r="C5" t="n">
-        <v>30.64346148481441</v>
+        <v>30.23971586274578</v>
       </c>
       <c r="D5" t="n">
         <v>48.5</v>
       </c>
       <c r="E5" t="n">
-        <v>41.80166215611899</v>
+        <v>42.12579915663441</v>
       </c>
       <c r="F5" t="n">
         <v>0.2875523818737399</v>
@@ -652,13 +652,13 @@
         <v>0.2588108712346066</v>
       </c>
       <c r="J5" t="n">
-        <v>9.993107055455191</v>
+        <v>9.509533992662657</v>
       </c>
       <c r="K5" t="n">
-        <v>15.25665199306136</v>
+        <v>14.51837250788192</v>
       </c>
       <c r="L5" t="n">
-        <v>0.318452728428031</v>
+        <v>0.3030425901811364</v>
       </c>
       <c r="M5" t="n">
         <v>1.029445018072202</v>
@@ -713,13 +713,13 @@
         <v>13.8</v>
       </c>
       <c r="C7" t="n">
-        <v>18.62241829967096</v>
+        <v>19.06994866209529</v>
       </c>
       <c r="D7" t="n">
         <v>53.2</v>
       </c>
       <c r="E7" t="n">
-        <v>47.71188174486176</v>
+        <v>47.20257305384315</v>
       </c>
       <c r="F7" t="n">
         <v>0.5799667086437413</v>
@@ -734,13 +734,13 @@
         <v>0.1524007847238041</v>
       </c>
       <c r="J7" t="n">
-        <v>11.68536867011002</v>
+        <v>12.7697949788674</v>
       </c>
       <c r="K7" t="n">
-        <v>11.8633184468122</v>
+        <v>12.96425886179431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1392923415009707</v>
+        <v>0.1522189580242855</v>
       </c>
       <c r="M7" t="n">
         <v>1.425545668322417</v>
@@ -795,13 +795,13 @@
         <v>19.6</v>
       </c>
       <c r="C9" t="n">
-        <v>29.74885252297446</v>
+        <v>28.56594251407002</v>
       </c>
       <c r="D9" t="n">
         <v>57.1</v>
       </c>
       <c r="E9" t="n">
-        <v>42.89812882790149</v>
+        <v>44.55344261994022</v>
       </c>
       <c r="F9" t="n">
         <v>0.3002798752865589</v>
@@ -816,13 +816,13 @@
         <v>0.4909455841376956</v>
       </c>
       <c r="J9" t="n">
-        <v>12.70566325395998</v>
+        <v>11.2247415242516</v>
       </c>
       <c r="K9" t="n">
-        <v>13.55270747089065</v>
+        <v>11.97305762586838</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3787165645892937</v>
+        <v>0.3345748634682608</v>
       </c>
       <c r="M9" t="n">
         <v>1.139860949984734</v>
@@ -877,13 +877,13 @@
         <v>19.3</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0917716116084</v>
+        <v>25.8127276552858</v>
       </c>
       <c r="D11" t="n">
         <v>54.3</v>
       </c>
       <c r="E11" t="n">
-        <v>47.40245906953728</v>
+        <v>47.68584862092379</v>
       </c>
       <c r="F11" t="n">
         <v>0.3928698643946315</v>
@@ -898,13 +898,13 @@
         <v>0.2878990602690667</v>
       </c>
       <c r="J11" t="n">
-        <v>11.12583337864091</v>
+        <v>10.66872192953747</v>
       </c>
       <c r="K11" t="n">
-        <v>12.71523814701819</v>
+        <v>12.19282506232854</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1970725980132205</v>
+        <v>0.1889757536878917</v>
       </c>
       <c r="M11" t="n">
         <v>1.053779595892426</v>
@@ -959,13 +959,13 @@
         <v>19.4</v>
       </c>
       <c r="C13" t="n">
-        <v>21.89652972667228</v>
+        <v>22.02948011032728</v>
       </c>
       <c r="D13" t="n">
         <v>52.5</v>
       </c>
       <c r="E13" t="n">
-        <v>48.42696513577138</v>
+        <v>48.21005942779841</v>
       </c>
       <c r="F13" t="n">
         <v>0.671028744534186</v>
@@ -980,13 +980,13 @@
         <v>0.2601431463104357</v>
       </c>
       <c r="J13" t="n">
-        <v>6.98494658981067</v>
+        <v>7.356923465953405</v>
       </c>
       <c r="K13" t="n">
-        <v>8.441023069257605</v>
+        <v>8.890541952813782</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1230524128165748</v>
+        <v>0.1296054553535223</v>
       </c>
       <c r="M13" t="n">
         <v>1.065479746313639</v>
@@ -1041,13 +1041,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>26.88583109206294</v>
+        <v>26.85765552238473</v>
       </c>
       <c r="D15" t="n">
         <v>52.7</v>
       </c>
       <c r="E15" t="n">
-        <v>44.28970049464121</v>
+        <v>44.31974995638613</v>
       </c>
       <c r="F15" t="n">
         <v>0.4881730422393566</v>
@@ -1062,13 +1062,13 @@
         <v>0.2119537299947021</v>
       </c>
       <c r="J15" t="n">
-        <v>16.05346137950398</v>
+        <v>15.99610338966194</v>
       </c>
       <c r="K15" t="n">
-        <v>19.05455356617683</v>
+        <v>18.98647286606758</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2495637835418039</v>
+        <v>0.248672108119106</v>
       </c>
       <c r="M15" t="n">
         <v>1.133911947008319</v>
@@ -1123,13 +1123,13 @@
         <v>19.4</v>
       </c>
       <c r="C17" t="n">
-        <v>22.72393047429888</v>
+        <v>22.96039711771731</v>
       </c>
       <c r="D17" t="n">
         <v>53.9</v>
       </c>
       <c r="E17" t="n">
-        <v>49.14102314099123</v>
+        <v>48.80246633522858</v>
       </c>
       <c r="F17" t="n">
         <v>0.6369294304913755</v>
@@ -1144,13 +1144,13 @@
         <v>0.2241675537321912</v>
       </c>
       <c r="J17" t="n">
-        <v>8.827311893186026</v>
+        <v>9.455292782055105</v>
       </c>
       <c r="K17" t="n">
-        <v>10.23456451383887</v>
+        <v>10.9626582980349</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1379413582321383</v>
+        <v>0.1477545989788817</v>
       </c>
       <c r="M17" t="n">
         <v>1.165477079235143</v>
@@ -1205,13 +1205,13 @@
         <v>19.5</v>
       </c>
       <c r="C19" t="n">
-        <v>26.44891844797201</v>
+        <v>26.15851145642634</v>
       </c>
       <c r="D19" t="n">
         <v>55.2</v>
       </c>
       <c r="E19" t="n">
-        <v>48.14409896239679</v>
+        <v>48.43897693633132</v>
       </c>
       <c r="F19" t="n">
         <v>0.3928787303096709</v>
@@ -1226,13 +1226,13 @@
         <v>0.2876613035114786</v>
       </c>
       <c r="J19" t="n">
-        <v>11.38270358504607</v>
+        <v>10.90700125402303</v>
       </c>
       <c r="K19" t="n">
-        <v>12.75372950705442</v>
+        <v>12.22072969638435</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1976442867675969</v>
+        <v>0.18938439954254</v>
       </c>
       <c r="M19" t="n">
         <v>1.053779595892426</v>
@@ -1287,13 +1287,13 @@
         <v>19.6</v>
       </c>
       <c r="C21" t="n">
-        <v>22.12554641701199</v>
+        <v>22.25912807429409</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>48.88012268209857</v>
+        <v>48.66221338682007</v>
       </c>
       <c r="F21" t="n">
         <v>0.6710356987879318</v>
@@ -1308,13 +1308,13 @@
         <v>0.2600126268799931</v>
       </c>
       <c r="J21" t="n">
-        <v>7.065699320558118</v>
+        <v>7.439419565309683</v>
       </c>
       <c r="K21" t="n">
-        <v>8.461915353961817</v>
+        <v>8.909484509352913</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1233496202964502</v>
+        <v>0.1298738506940098</v>
       </c>
       <c r="M21" t="n">
         <v>1.065479746313639</v>
@@ -1369,13 +1369,13 @@
         <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.3021443562709</v>
+        <v>27.2706315729843</v>
       </c>
       <c r="D23" t="n">
         <v>53.2</v>
       </c>
       <c r="E23" t="n">
-        <v>44.75014380180473</v>
+        <v>44.78384079279495</v>
       </c>
       <c r="F23" t="n">
         <v>0.4895413483796101</v>
@@ -1390,13 +1390,13 @@
         <v>0.2118557148920427</v>
       </c>
       <c r="J23" t="n">
-        <v>16.12945014874316</v>
+        <v>16.06512787821085</v>
       </c>
       <c r="K23" t="n">
-        <v>19.08810668490315</v>
+        <v>19.01198565468739</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2499957455087358</v>
+        <v>0.2489987931125754</v>
       </c>
       <c r="M23" t="n">
         <v>1.137868529938777</v>
@@ -1451,13 +1451,13 @@
         <v>19.6</v>
       </c>
       <c r="C25" t="n">
-        <v>29.09915060453191</v>
+        <v>28.5236062270535</v>
       </c>
       <c r="D25" t="n">
         <v>53.5</v>
       </c>
       <c r="E25" t="n">
-        <v>43.39389627431695</v>
+        <v>44.00621535627313</v>
       </c>
       <c r="F25" t="n">
         <v>0.2893956615580419</v>
@@ -1472,13 +1472,13 @@
         <v>0.4375293671640324</v>
       </c>
       <c r="J25" t="n">
-        <v>11.46122297584749</v>
+        <v>10.76679852492571</v>
       </c>
       <c r="K25" t="n">
-        <v>13.52356693315339</v>
+        <v>12.70418705005983</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2981151541499425</v>
+        <v>0.2800526443577246</v>
       </c>
       <c r="M25" t="n">
         <v>0.9124896181114223</v>
@@ -1533,13 +1533,13 @@
         <v>22.4</v>
       </c>
       <c r="C27" t="n">
-        <v>26.84225935374987</v>
+        <v>26.69933351360878</v>
       </c>
       <c r="D27" t="n">
         <v>48.4</v>
       </c>
       <c r="E27" t="n">
-        <v>45.98588497582085</v>
+        <v>46.06355703198677</v>
       </c>
       <c r="F27" t="n">
         <v>0.2502799552486097</v>
@@ -1554,13 +1554,13 @@
         <v>0.1555459856000857</v>
       </c>
       <c r="J27" t="n">
-        <v>4.630756050106887</v>
+        <v>4.481765492319828</v>
       </c>
       <c r="K27" t="n">
-        <v>7.124240077087519</v>
+        <v>6.895023834338197</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1708561289903798</v>
+        <v>0.1653589812926455</v>
       </c>
       <c r="M27" t="n">
         <v>0.9400588003179114</v>
@@ -1615,13 +1615,13 @@
         <v>20.5</v>
       </c>
       <c r="C29" t="n">
-        <v>28.8617430293205</v>
+        <v>28.81870913783544</v>
       </c>
       <c r="D29" t="n">
         <v>52.5</v>
       </c>
       <c r="E29" t="n">
-        <v>46.38239540362497</v>
+        <v>46.41387978809191</v>
       </c>
       <c r="F29" t="n">
         <v>0.3207098133158484</v>
@@ -1636,13 +1636,13 @@
         <v>0.1915987993348298</v>
       </c>
       <c r="J29" t="n">
-        <v>11.17696411913236</v>
+        <v>11.1194416313749</v>
       </c>
       <c r="K29" t="n">
-        <v>13.97120514891545</v>
+        <v>13.89930203921863</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2613044696662655</v>
+        <v>0.2599596605573575</v>
       </c>
       <c r="M29" t="n">
         <v>0.9595828882600164</v>
@@ -1697,13 +1697,13 @@
         <v>21.3</v>
       </c>
       <c r="C31" t="n">
-        <v>29.12769823787619</v>
+        <v>29.09942693545122</v>
       </c>
       <c r="D31" t="n">
         <v>51.3</v>
       </c>
       <c r="E31" t="n">
-        <v>45.57479032517593</v>
+        <v>45.59546806839553</v>
       </c>
       <c r="F31" t="n">
         <v>0.3207447351226388</v>
@@ -1718,13 +1718,13 @@
         <v>0.1918379703714777</v>
       </c>
       <c r="J31" t="n">
-        <v>10.46128191802289</v>
+        <v>10.4234988998393</v>
       </c>
       <c r="K31" t="n">
-        <v>13.94837589069718</v>
+        <v>13.89799853311907</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2609232745958729</v>
+        <v>0.2599808978483739</v>
       </c>
       <c r="M31" t="n">
         <v>0.9595828882600164</v>
@@ -1779,13 +1779,13 @@
         <v>21.8</v>
       </c>
       <c r="C33" t="n">
-        <v>29.66891415623629</v>
+        <v>29.22250607218241</v>
       </c>
       <c r="D33" t="n">
         <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>41.62650723508064</v>
+        <v>42.10154035754319</v>
       </c>
       <c r="F33" t="n">
         <v>0.2894770877159045</v>
@@ -1800,13 +1800,13 @@
         <v>0.4383392251875413</v>
       </c>
       <c r="J33" t="n">
-        <v>9.489498434351358</v>
+        <v>8.951153660142094</v>
       </c>
       <c r="K33" t="n">
-        <v>13.46028146716505</v>
+        <v>12.69667185835758</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2969323675503318</v>
+        <v>0.2800872213637166</v>
       </c>
       <c r="M33" t="n">
         <v>0.9124896181114223</v>
